--- a/biology/Botanique/Regine_(pomme)/Regine_(pomme).xlsx
+++ b/biology/Botanique/Regine_(pomme)/Regine_(pomme).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Regine est un cultivar de pommier domestique. Cette variété résistante est disponible dans de nombreuses jardineries et pépinières en Europe[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Regine est un cultivar de pommier domestique. Cette variété résistante est disponible dans de nombreuses jardineries et pépinières en Europe.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Usage : pomme à couteau, de table, à dessert.
 Calibre : gros.
@@ -545,9 +559,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Institut de Dresde-Pillnitz, Allemagne[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Institut de Dresde-Pillnitz, Allemagne.
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Parenté</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Kurzcox (Cox's Orange) croisée avec BX44,14 (porteur du gène Vf)[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Kurzcox (Cox's Orange) croisée avec BX44,14 (porteur du gène Vf).
 Descendants :
 Recolor</t>
         </is>
@@ -608,7 +626,9 @@
           <t>Pollinisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Variété diploïde.
 Pollinisateurs : Retina, Rewena
@@ -640,7 +660,9 @@
           <t>Susceptibilité aux maladies et animaux</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Tavelure : résistant.
 Feu bactérien : résistant.
@@ -673,10 +695,12 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Récolte : fin novembre.
-Conservation : jusqu'en juin[4].
+Conservation : jusqu'en juin.
 Cultivar peu vigoureux.
 Variété parfaite pour l'agriculture intensive, les jardins familiaux et les méthodes de culture écologiques.
 La résistance du cultivar aux maladies permet de réduire les traitements chimiques. Il est donc évident que cette variété est particulièrement respectueuse de l'environnement.
